--- a/data/trans_orig/P70A05_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBFDA283-8282-4D46-A183-4E0F0A2DB5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6F3BECE-CBC0-4D82-B41B-DE4F987A3C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39ED5257-4178-4C9F-9995-225201F75FE0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20581091-6B91-46ED-8C97-5A15F2AB7A51}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Población según si tiene un comité de seguridad y salud o bien delegados de prevención en su empresa en 2007 (Tasa respuesta: 32,78%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>45,63%</t>
   </si>
   <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
   </si>
   <si>
     <t>24,91%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
   </si>
   <si>
     <t>40,08%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>54,37%</t>
   </si>
   <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
   </si>
   <si>
     <t>75,09%</t>
   </si>
   <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>59,92%</t>
   </si>
   <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>42,86%</t>
   </si>
   <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
   </si>
   <si>
     <t>37,78%</t>
   </si>
   <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
   </si>
   <si>
     <t>57,14%</t>
   </si>
   <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
   </si>
   <si>
     <t>76,06%</t>
   </si>
   <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
   </si>
   <si>
     <t>62,22%</t>
   </si>
   <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>52,59%</t>
   </si>
   <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
   </si>
   <si>
     <t>41,45%</t>
   </si>
   <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
   </si>
   <si>
     <t>49,18%</t>
   </si>
   <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
   </si>
   <si>
     <t>47,41%</t>
   </si>
   <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
   </si>
   <si>
     <t>58,55%</t>
   </si>
   <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
   </si>
   <si>
     <t>50,82%</t>
   </si>
   <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>54,46%</t>
   </si>
   <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
   </si>
   <si>
     <t>42,05%</t>
   </si>
   <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
   </si>
   <si>
     <t>45,54%</t>
   </si>
   <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
   </si>
   <si>
     <t>57,95%</t>
   </si>
   <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,103 @@
     <t>57,46%</t>
   </si>
   <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
   </si>
   <si>
     <t>40,51%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
   </si>
   <si>
     <t>50,94%</t>
   </si>
   <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
+    <t>47,14%</t>
   </si>
   <si>
     <t>42,54%</t>
   </si>
   <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
   </si>
   <si>
     <t>59,49%</t>
   </si>
   <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
   </si>
   <si>
     <t>49,06%</t>
   </si>
   <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
+    <t>52,86%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9595F268-866E-49F3-8ADB-B90B60225018}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAA55E9-B155-4574-A115-1AE4387E138F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1605,7 +1599,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1614,13 @@
         <v>190550</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>153</v>
@@ -1635,13 +1629,13 @@
         <v>166286</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>348</v>
@@ -1650,13 +1644,13 @@
         <v>356837</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1718,13 @@
         <v>781950</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>285</v>
@@ -1739,13 +1733,13 @@
         <v>293080</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1030</v>
@@ -1754,13 +1748,13 @@
         <v>1075030</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1769,13 @@
         <v>697985</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>433</v>
@@ -1790,13 +1784,13 @@
         <v>457773</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1104</v>
@@ -1805,13 +1799,13 @@
         <v>1155758</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A05_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6F3BECE-CBC0-4D82-B41B-DE4F987A3C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B57DFA3B-AC54-4669-9545-3431AC107606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20581091-6B91-46ED-8C97-5A15F2AB7A51}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5FA3EC7-61BB-4F7B-97A6-DA244653159C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Población según si tiene un comité de seguridad y salud o bien delegados de prevención en su empresa en 2007 (Tasa respuesta: 32,78%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -74,28 +74,28 @@
     <t>45,63%</t>
   </si>
   <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
   </si>
   <si>
     <t>24,91%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
   </si>
   <si>
     <t>40,08%</t>
   </si>
   <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,202 +104,202 @@
     <t>54,37%</t>
   </si>
   <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
   </si>
   <si>
     <t>75,09%</t>
   </si>
   <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>59,92%</t>
   </si>
   <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>42,86%</t>
   </si>
   <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
   </si>
   <si>
     <t>37,78%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
   </si>
   <si>
     <t>57,14%</t>
   </si>
   <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
   </si>
   <si>
     <t>76,06%</t>
   </si>
   <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>62,22%</t>
   </si>
   <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>52,59%</t>
   </si>
   <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
   </si>
   <si>
     <t>41,45%</t>
   </si>
   <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
   </si>
   <si>
     <t>49,18%</t>
   </si>
   <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
   </si>
   <si>
     <t>47,41%</t>
   </si>
   <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>58,55%</t>
   </si>
   <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
   </si>
   <si>
     <t>50,82%</t>
   </si>
   <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>54,46%</t>
   </si>
   <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
   </si>
   <si>
     <t>42,05%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
   </si>
   <si>
     <t>45,54%</t>
   </si>
   <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
   </si>
   <si>
     <t>57,95%</t>
   </si>
   <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,103 +308,109 @@
     <t>57,46%</t>
   </si>
   <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
   </si>
   <si>
     <t>40,51%</t>
   </si>
   <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
   </si>
   <si>
     <t>50,94%</t>
   </si>
   <si>
-    <t>47,14%</t>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
   </si>
   <si>
     <t>42,54%</t>
   </si>
   <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
   </si>
   <si>
     <t>59,49%</t>
   </si>
   <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
   </si>
   <si>
     <t>49,06%</t>
   </si>
   <si>
-    <t>52,86%</t>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAA55E9-B155-4574-A115-1AE4387E138F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CDE36C-4196-4360-8CFF-DBA76C506A28}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1331,7 +1337,7 @@
         <v>298</v>
       </c>
       <c r="N11" s="7">
-        <v>325244</v>
+        <v>325243</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1382,7 +1388,7 @@
         <v>577</v>
       </c>
       <c r="N12" s="7">
-        <v>639949</v>
+        <v>639948</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1435,7 +1441,7 @@
         <v>243</v>
       </c>
       <c r="N13" s="7">
-        <v>254157</v>
+        <v>254158</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1537,7 +1543,7 @@
         <v>486</v>
       </c>
       <c r="N15" s="7">
-        <v>507645</v>
+        <v>507646</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1599,7 +1605,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1620,13 @@
         <v>190550</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>153</v>
@@ -1629,13 +1635,13 @@
         <v>166286</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>348</v>
@@ -1644,13 +1650,13 @@
         <v>356837</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1724,13 @@
         <v>781950</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>285</v>
@@ -1733,13 +1739,13 @@
         <v>293080</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1030</v>
@@ -1748,13 +1754,13 @@
         <v>1075030</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1775,13 @@
         <v>697985</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>433</v>
@@ -1784,13 +1790,13 @@
         <v>457773</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1104</v>
@@ -1799,13 +1805,13 @@
         <v>1155758</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A05_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B57DFA3B-AC54-4669-9545-3431AC107606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C7595F2-865F-405D-831D-607A7F91BB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5FA3EC7-61BB-4F7B-97A6-DA244653159C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{52E92824-7961-4A03-90F4-11B019BE5466}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,22 +68,22 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>45,63%</t>
   </si>
   <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
   </si>
   <si>
     <t>24,91%</t>
   </si>
   <si>
-    <t>6,22%</t>
+    <t>6,19%</t>
   </si>
   <si>
     <t>51,1%</t>
@@ -92,10 +92,10 @@
     <t>40,08%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,10 +104,10 @@
     <t>54,37%</t>
   </si>
   <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
   <si>
     <t>75,09%</t>
@@ -116,16 +116,16 @@
     <t>48,9%</t>
   </si>
   <si>
-    <t>93,78%</t>
+    <t>93,81%</t>
   </si>
   <si>
     <t>59,92%</t>
   </si>
   <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>42,86%</t>
   </si>
   <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
   </si>
   <si>
     <t>37,78%</t>
   </si>
   <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
   </si>
   <si>
     <t>57,14%</t>
   </si>
   <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
   </si>
   <si>
     <t>76,06%</t>
   </si>
   <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
   </si>
   <si>
     <t>62,22%</t>
   </si>
   <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,25 +194,25 @@
     <t>52,59%</t>
   </si>
   <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
   </si>
   <si>
     <t>41,45%</t>
   </si>
   <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>49,18%</t>
   </si>
   <si>
-    <t>44,88%</t>
+    <t>45,11%</t>
   </si>
   <si>
     <t>53,07%</t>
@@ -221,19 +221,19 @@
     <t>47,41%</t>
   </si>
   <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
   </si>
   <si>
     <t>58,55%</t>
   </si>
   <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
   </si>
   <si>
     <t>50,82%</t>
@@ -242,7 +242,7 @@
     <t>46,93%</t>
   </si>
   <si>
-    <t>55,12%</t>
+    <t>54,89%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>54,46%</t>
   </si>
   <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
   </si>
   <si>
     <t>42,05%</t>
   </si>
   <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
   </si>
   <si>
     <t>45,54%</t>
   </si>
   <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
   </si>
   <si>
     <t>57,95%</t>
   </si>
   <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>57,46%</t>
   </si>
   <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
   </si>
   <si>
     <t>40,51%</t>
   </si>
   <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
   </si>
   <si>
     <t>50,94%</t>
   </si>
   <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
   </si>
   <si>
     <t>42,54%</t>
   </si>
   <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
   </si>
   <si>
     <t>59,49%</t>
   </si>
   <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>49,06%</t>
   </si>
   <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CDE36C-4196-4360-8CFF-DBA76C506A28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB61C7A-12A6-46E0-BBCD-D34D6B87E524}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1337,7 +1337,7 @@
         <v>298</v>
       </c>
       <c r="N11" s="7">
-        <v>325243</v>
+        <v>325244</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1388,7 +1388,7 @@
         <v>577</v>
       </c>
       <c r="N12" s="7">
-        <v>639948</v>
+        <v>639949</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1441,7 +1441,7 @@
         <v>243</v>
       </c>
       <c r="N13" s="7">
-        <v>254158</v>
+        <v>254157</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1543,7 +1543,7 @@
         <v>486</v>
       </c>
       <c r="N15" s="7">
-        <v>507646</v>
+        <v>507645</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P70A05_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C7595F2-865F-405D-831D-607A7F91BB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC5670C-F177-432F-B0C0-019E4E04B62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{52E92824-7961-4A03-90F4-11B019BE5466}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{59B3D560-089C-4187-A7FA-DB376CF31A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si tiene un comité de seguridad y salud o bien delegados de prevención en su empresa en 2007 (Tasa respuesta: 32,78%)</t>
   </si>
@@ -65,129 +65,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -245,7 +188,7 @@
     <t>54,89%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>54,46%</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB61C7A-12A6-46E0-BBCD-D34D6B87E524}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A911C6-F168-436C-BE9B-E55C552296E8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7">
-        <v>17157</v>
+        <v>112636</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>3431</v>
+        <v>22981</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="N4" s="7">
-        <v>20588</v>
+        <v>135617</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="D5" s="7">
-        <v>20441</v>
+        <v>147741</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="I5" s="7">
-        <v>10340</v>
+        <v>72448</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="N5" s="7">
-        <v>30781</v>
+        <v>220189</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="D6" s="7">
-        <v>37598</v>
+        <v>260377</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="I6" s="7">
-        <v>13771</v>
+        <v>95429</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>48</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>51369</v>
+        <v>355806</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="D7" s="7">
-        <v>95479</v>
+        <v>233412</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="I7" s="7">
-        <v>19550</v>
+        <v>81293</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="N7" s="7">
-        <v>115029</v>
+        <v>314705</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="D8" s="7">
-        <v>127300</v>
+        <v>210401</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="I8" s="7">
-        <v>62108</v>
+        <v>114843</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>185</v>
+        <v>298</v>
       </c>
       <c r="N8" s="7">
-        <v>189408</v>
+        <v>325244</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>218</v>
+        <v>396</v>
       </c>
       <c r="D9" s="7">
-        <v>222779</v>
+        <v>443813</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="I9" s="7">
-        <v>81658</v>
+        <v>196136</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>296</v>
+        <v>577</v>
       </c>
       <c r="N9" s="7">
-        <v>304437</v>
+        <v>639949</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="D10" s="7">
-        <v>233412</v>
+        <v>178563</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I10" s="7">
-        <v>81293</v>
+        <v>75595</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="N10" s="7">
-        <v>314705</v>
+        <v>254157</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="D11" s="7">
-        <v>210401</v>
+        <v>149293</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I11" s="7">
-        <v>114843</v>
+        <v>104195</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="N11" s="7">
-        <v>325244</v>
+        <v>253488</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>396</v>
+        <v>305</v>
       </c>
       <c r="D12" s="7">
-        <v>443813</v>
+        <v>327856</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1373,7 +1316,7 @@
         <v>181</v>
       </c>
       <c r="I12" s="7">
-        <v>196136</v>
+        <v>179790</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>577</v>
+        <v>486</v>
       </c>
       <c r="N12" s="7">
-        <v>639949</v>
+        <v>507645</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c r="D13" s="7">
-        <v>178563</v>
+        <v>257339</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="I13" s="7">
-        <v>75595</v>
+        <v>113212</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>243</v>
+        <v>379</v>
       </c>
       <c r="N13" s="7">
-        <v>254157</v>
+        <v>370550</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="D14" s="7">
-        <v>149293</v>
+        <v>190550</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="I14" s="7">
-        <v>104195</v>
+        <v>166286</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>243</v>
+        <v>348</v>
       </c>
       <c r="N14" s="7">
-        <v>253488</v>
+        <v>356837</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>305</v>
+        <v>464</v>
       </c>
       <c r="D15" s="7">
-        <v>327856</v>
+        <v>447889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="I15" s="7">
-        <v>179790</v>
+        <v>279498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>486</v>
+        <v>727</v>
       </c>
       <c r="N15" s="7">
-        <v>507645</v>
+        <v>727387</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>269</v>
+        <v>745</v>
       </c>
       <c r="D16" s="7">
-        <v>257339</v>
+        <v>781950</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>285</v>
+      </c>
+      <c r="I16" s="7">
+        <v>293080</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>110</v>
-      </c>
-      <c r="I16" s="7">
-        <v>113212</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1030</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1075030</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>379</v>
-      </c>
-      <c r="N16" s="7">
-        <v>370550</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>195</v>
+        <v>671</v>
       </c>
       <c r="D17" s="7">
-        <v>190550</v>
+        <v>697985</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>433</v>
+      </c>
+      <c r="I17" s="7">
+        <v>457773</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>153</v>
-      </c>
-      <c r="I17" s="7">
-        <v>166286</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1104</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1155758</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>348</v>
-      </c>
-      <c r="N17" s="7">
-        <v>356837</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>464</v>
+        <v>1416</v>
       </c>
       <c r="D18" s="7">
-        <v>447889</v>
+        <v>1479935</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>263</v>
+        <v>718</v>
       </c>
       <c r="I18" s="7">
-        <v>279498</v>
+        <v>750853</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>727</v>
+        <v>2134</v>
       </c>
       <c r="N18" s="7">
-        <v>727387</v>
+        <v>2230788</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>745</v>
-      </c>
-      <c r="D19" s="7">
-        <v>781950</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>285</v>
-      </c>
-      <c r="I19" s="7">
-        <v>293080</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1030</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1075030</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>671</v>
-      </c>
-      <c r="D20" s="7">
-        <v>697985</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>433</v>
-      </c>
-      <c r="I20" s="7">
-        <v>457773</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1104</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1155758</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1416</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1479935</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>718</v>
-      </c>
-      <c r="I21" s="7">
-        <v>750853</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2134</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2230788</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
